--- a/src/main/resources/Excel/NPC.xlsx
+++ b/src/main/resources/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>talks</t>
   </si>
   <si>
-    <t>主城(id=1）</t>
+    <t>起始村</t>
   </si>
   <si>
     <t>莉萌</t>
@@ -40,7 +40,7 @@
 我：哈哈哈哈，你是不是等我很久了</t>
   </si>
   <si>
-    <t>百美图(id=2002)</t>
+    <t>雷霆图</t>
   </si>
   <si>
     <t>村民甲</t>
@@ -50,7 +50,7 @@
 我：哈哈哈哈，收到over</t>
   </si>
   <si>
-    <t>仙图(id=2003)</t>
+    <t>遗迹层</t>
   </si>
   <si>
     <t>小冬冬</t>
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -94,6 +94,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -101,128 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,25 +233,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,31 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,121 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +427,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,41 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,10 +1035,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="4" max="4" width="165.333333333333" customWidth="1"/>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:4">
+    <row r="2" ht="27" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:4">
+    <row r="3" ht="27" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:4">
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1116,7 +1116,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1133,7 +1133,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
